--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dkk4-Kremen1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dkk4-Kremen1.xlsx
@@ -534,10 +534,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09226200000000001</v>
+        <v>0.02506566666666667</v>
       </c>
       <c r="H2">
-        <v>0.276786</v>
+        <v>0.075197</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.238669333333334</v>
+        <v>3.636278</v>
       </c>
       <c r="N2">
-        <v>9.716008</v>
+        <v>10.908834</v>
       </c>
       <c r="O2">
-        <v>0.1133140796744973</v>
+        <v>0.1254799416243108</v>
       </c>
       <c r="P2">
-        <v>0.1133140796744973</v>
+        <v>0.1254799416243107</v>
       </c>
       <c r="Q2">
-        <v>0.2988061100320001</v>
+        <v>0.09114573225533334</v>
       </c>
       <c r="R2">
-        <v>2.689254990288001</v>
+        <v>0.820311590298</v>
       </c>
       <c r="S2">
-        <v>0.1133140796744973</v>
+        <v>0.1254799416243108</v>
       </c>
       <c r="T2">
-        <v>0.1133140796744973</v>
+        <v>0.1254799416243107</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +596,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09226200000000001</v>
+        <v>0.02506566666666667</v>
       </c>
       <c r="H3">
-        <v>0.276786</v>
+        <v>0.075197</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>53.956206</v>
       </c>
       <c r="O3">
-        <v>0.6292705631384401</v>
+        <v>0.620636594080475</v>
       </c>
       <c r="P3">
-        <v>0.6292705631384401</v>
+        <v>0.620636594080475</v>
       </c>
       <c r="Q3">
-        <v>1.659369159324</v>
+        <v>0.450816091398</v>
       </c>
       <c r="R3">
-        <v>14.934322433916</v>
+        <v>4.057344822582</v>
       </c>
       <c r="S3">
-        <v>0.6292705631384401</v>
+        <v>0.620636594080475</v>
       </c>
       <c r="T3">
-        <v>0.6292705631384401</v>
+        <v>0.620636594080475</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +658,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09226200000000001</v>
+        <v>0.02506566666666667</v>
       </c>
       <c r="H4">
-        <v>0.276786</v>
+        <v>0.075197</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>22.071835</v>
       </c>
       <c r="O4">
-        <v>0.2574153571870626</v>
+        <v>0.2538834642952142</v>
       </c>
       <c r="P4">
-        <v>0.2574153571870626</v>
+        <v>0.2538834642952141</v>
       </c>
       <c r="Q4">
-        <v>0.6787972135900001</v>
+        <v>0.1844150862772222</v>
       </c>
       <c r="R4">
-        <v>6.109174922310001</v>
+        <v>1.659735776495</v>
       </c>
       <c r="S4">
-        <v>0.2574153571870626</v>
+        <v>0.2538834642952142</v>
       </c>
       <c r="T4">
-        <v>0.2574153571870626</v>
+        <v>0.2538834642952141</v>
       </c>
     </row>
   </sheetData>
